--- a/APM files/128788863/128788863 EXPORT 3 EPC template.xlsx
+++ b/APM files/128788863/128788863 EXPORT 3 EPC template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128788863\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37658DE6-FDCE-4A26-999A-48124D0B6223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863919E2-7060-43F1-B84B-6018EEFB87CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="5115" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="3120" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,12 +54,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,17 +91,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,7 +412,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,26 +423,31 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2">
+        <v>37833667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>38161847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>38161830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>38231185</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>38161830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>38161847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>37833667</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>